--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value338.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value338.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9492831651686616</v>
+        <v>0.7981066107749939</v>
       </c>
       <c r="B1">
-        <v>3.077426686489547</v>
+        <v>1.499279379844666</v>
       </c>
       <c r="C1">
-        <v>4.266958729094384</v>
+        <v>5.820702075958252</v>
       </c>
       <c r="D1">
-        <v>1.395355045131854</v>
+        <v>3.132373809814453</v>
       </c>
       <c r="E1">
-        <v>0.9184667218609313</v>
+        <v>1.471651196479797</v>
       </c>
     </row>
   </sheetData>
